--- a/CoreRulebook/Data/Archetypes/Archetype Supplementals/Outlaw_Surprises.xlsx
+++ b/CoreRulebook/Data/Archetypes/Archetype Supplementals/Outlaw_Surprises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Archetypes\Archetype Supplementals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642AE875-569B-404B-A033-D0739185296B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BBF86C-6251-4A39-ADA7-C1BEA8352ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t xml:space="preserve">When you land a strike on a target, you may use a surprise to reveal that the blade was coated in a deadly toxin. The victim takes poison damage equal to your Surprise Attack damage, and on a failed Vitality Resist takes the {\it Poisoned: Mild} status effect. </t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever you land an attack on an opponent, you may use a surprise to twist the dagger a bit, or sneak in an extra punch to the kidneys. In addition to the normal attack roll, you may add your Surprise Attack damage, which increases with your Outlaw level, as shown in the Archetype table. </t>
-  </si>
-  <si>
     <t>Shift Weight</t>
   </si>
   <si>
@@ -114,6 +108,13 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you land an attack on an opponent, you may use a surprise to twist the dagger a bit, sneak in an extra punch to the kidneys, or follow a hex with a secondary strike. In addition to the normal damage roll, you may add your Surprise Attack damage, which increases with your Outlaw level, as shown in the Archetype table. 
+You may only use one Surprise Attack per combat cycle. </t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -566,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -581,129 +582,129 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="114.75">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="114.75">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="127.5">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="102">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="76.5">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="102">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="89.25">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="114.75">
+    </row>
+    <row r="9" spans="1:5" ht="165.75">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="102">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="89.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="3:4">
